--- a/resource/40.design/440.development/[Saturn]449crawling_insert/27코큐텐.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/27코큐텐.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rydga\OneDrive\바탕 화면\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A09383-2F94-45ED-AE17-19D72FDE3BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="0" windowWidth="13125" windowHeight="15600" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7020" tabRatio="745"/>
   </bookViews>
   <sheets>
     <sheet name="TB_SLE" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TB_PRD!$A$2:$O$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TB_SLE_IMG!$A$2:$O$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -311,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -731,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -801,10 +800,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="C3" s="6">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -826,7 +825,7 @@
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -845,15 +844,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (188, 188, '솔가 식물성 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (246, 246, '솔가 식물성 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="C4" s="6">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -875,7 +874,7 @@
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J23" ca="1" si="0">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -894,15 +893,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P23" ca="1" si="1">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (189, 189, '솔가 메가솔브 코큐텐 100mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000866/1000000866_main_062.png', 31500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (247, 247, '솔가 메가솔브 코큐텐 100mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000866/1000000866_main_062.png', 31500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="C5" s="6">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -924,7 +923,7 @@
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -943,15 +942,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (190, 190, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (248, 248, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="C6" s="6">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -973,7 +972,7 @@
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -992,15 +991,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (191, 191, '나우푸드 코큐텐 코엔자임 200mg 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000927/1000000927_main_095.jpg', 33400, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (249, 249, '나우푸드 코큐텐 코엔자임 200mg 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000927/1000000927_main_095.jpg', 33400, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C7" s="6">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1022,7 +1021,7 @@
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1041,15 +1040,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (192, 192, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (250, 250, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C8" s="6">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1071,7 +1070,7 @@
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1090,15 +1089,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (193, 193, '블루보넷 코큐텐 200mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001914/1000001914_main_047.jpg', 43600, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (251, 251, '블루보넷 코큐텐 200mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001914/1000001914_main_047.jpg', 43600, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="C9" s="6">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -1120,7 +1119,7 @@
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1139,15 +1138,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (194, 194, '가든오브라이프 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000120/1000000120_main_065.jpg', 62400, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (252, 252, '가든오브라이프 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000120/1000000120_main_065.jpg', 62400, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="C10" s="6">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1169,7 +1168,7 @@
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1188,15 +1187,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (195, 195, '컨트리라이프 코큐텐 100mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000413/1000000413_main_059.jpg', 35800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (253, 253, '컨트리라이프 코큐텐 100mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000413/1000000413_main_059.jpg', 35800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="C11" s="6">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -1218,7 +1217,7 @@
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1237,15 +1236,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (196, 196, '나우푸드 코큐텐 60mg 180캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000917/1000000917_main_034.jpg', 34200, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (254, 254, '나우푸드 코큐텐 60mg 180캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000917/1000000917_main_034.jpg', 34200, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="C12" s="6">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
@@ -1267,7 +1266,7 @@
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1286,15 +1285,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (197, 197, '컨트리라이프 코큐텐 100mg 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000412/1000000412_main_049.jpg', 21500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (255, 255, '컨트리라이프 코큐텐 100mg 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000412/1000000412_main_049.jpg', 21500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="C13" s="6">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
@@ -1316,7 +1315,7 @@
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1335,15 +1334,15 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (198, 198, '어메이징포뮬라 베르베린 1000mg 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/48/1000003006/1000003006_main_02.jpg', 37500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (256, 256, '어메이징포뮬라 베르베린 1000mg 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/48/1000003006/1000003006_main_02.jpg', 37500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="C14" s="6">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
@@ -1365,7 +1364,7 @@
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
@@ -1384,15 +1383,15 @@
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (199, 199, '나우푸드 코큐텐 100mg 호손베리 함유 180베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000932/1000000932_main_053.jpg', 50500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (257, 257, '나우푸드 코큐텐 100mg 호손베리 함유 180베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000932/1000000932_main_053.jpg', 50500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C15" s="6">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
@@ -1414,7 +1413,7 @@
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>23</v>
@@ -1433,15 +1432,15 @@
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (200, 200, '솔가 유비퀴놀 100mg 50소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002884/1000002884_main_032.jpg', 31000, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (258, 258, '솔가 유비퀴놀 100mg 50소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002884/1000002884_main_032.jpg', 31000, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C16" s="6">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1463,7 +1462,7 @@
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>23</v>
@@ -1482,15 +1481,15 @@
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (201, 201, '자로우 코엔자임 Q10 100mg 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001162/1479107671688s0.jpg', 47000, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (259, 259, '자로우 코엔자임 Q10 100mg 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001162/1479107671688s0.jpg', 47000, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="C17" s="6">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -1512,7 +1511,7 @@
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>23</v>
@@ -1531,15 +1530,15 @@
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (202, 202, '나우푸드 코큐텐 60mg 위드 오메가3 피쉬오일 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000925/1000000925_main_021.jpg', 24300, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (260, 260, '나우푸드 코큐텐 60mg 위드 오메가3 피쉬오일 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000925/1000000925_main_021.jpg', 24300, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="C18" s="6">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -1561,7 +1560,7 @@
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>23</v>
@@ -1580,15 +1579,15 @@
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (203, 203, '솔가 코큐텐 200mg 60소프트젤 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001414/1000001414_main_032.jpg', 89100, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (261, 261, '솔가 코큐텐 200mg 60소프트젤 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001414/1000001414_main_032.jpg', 89100, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C19" s="6">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
@@ -1610,7 +1609,7 @@
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>23</v>
@@ -1629,15 +1628,15 @@
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (204, 204, '솔가 메가솔브 코큐텐 200mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000486/1000000486_main_082.jpg', 39800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (262, 262, '솔가 메가솔브 코큐텐 200mg 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000486/1000000486_main_082.jpg', 39800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C20" s="6">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
@@ -1678,15 +1677,15 @@
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (205, 205, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤 2병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/06/22/1000001288/1000001288_main_081.jpg', 79000, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (263, 263, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤 2병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/06/22/1000001288/1000001288_main_081.jpg', 79000, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="C21" s="6">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1708,7 +1707,7 @@
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>23</v>
@@ -1727,15 +1726,15 @@
       </c>
       <c r="P21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (206, 206, '솔가 식물성 코큐텐 200mg 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000479/1000000479_main_08.jpg', 29500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (264, 264, '솔가 식물성 코큐텐 200mg 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000479/1000000479_main_08.jpg', 29500, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="C22" s="6">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -1757,7 +1756,7 @@
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>23</v>
@@ -1776,15 +1775,15 @@
       </c>
       <c r="P22" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (207, 207, '솔가 식물성 코큐텐 120mg 30캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001416/1498444399952s0.jpg', 47400, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (265, 265, '솔가 식물성 코큐텐 120mg 30캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001416/1498444399952s0.jpg', 47400, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="C23" s="6">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
@@ -1806,7 +1805,7 @@
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>23</v>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="P23" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (208, 208, '솔가 식물성 코큐텐 120mg 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000873/1441679198733s0.jpg', 15800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (266, 266, '솔가 식물성 코큐텐 120mg 30캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000873/1441679198733s0.jpg', 15800, '2', '7', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2031,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F091BC-945F-4AFC-A78F-31DD57129174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
